--- a/510k/表/D道具.xlsx
+++ b/510k/表/D道具.xlsx
@@ -15,52 +15,205 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>husu</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：经验物品
+2：奖卷
+3：道具
+4：门票
+5：场景
+6：头像框
+7：礼包
+8：体验卡</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0：不显示品质
+1：白
+2：绿
+3：蓝
+4：紫
+5：橙</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">类型_id_数量
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>数字：指定天数</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+  <si>
+    <t>类型</t>
+  </si>
   <si>
     <t>名称</t>
   </si>
   <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>有效天数</t>
-  </si>
-  <si>
-    <t>有效次数</t>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>使用效果</t>
+  </si>
+  <si>
+    <t>有效期/天</t>
   </si>
   <si>
     <t>描述</t>
   </si>
   <si>
+    <t>使用方式导航</t>
+  </si>
+  <si>
+    <t>叠加方式</t>
+  </si>
+  <si>
+    <t>是否默认拥有</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
+    <t>lx</t>
+  </si>
+  <si>
     <t>mc</t>
   </si>
   <si>
-    <t>lx</t>
-  </si>
-  <si>
-    <t>yxts</t>
+    <t>pz</t>
+  </si>
+  <si>
+    <t>syxg</t>
+  </si>
+  <si>
+    <t>yxq</t>
   </si>
   <si>
     <t>ms</t>
   </si>
   <si>
+    <t>syfxdh</t>
+  </si>
+  <si>
+    <t>djfx</t>
+  </si>
+  <si>
+    <t>sfmryy</t>
+  </si>
+  <si>
+    <t>包子1阶</t>
+  </si>
+  <si>
+    <t>5_0_80</t>
+  </si>
+  <si>
+    <t>包子2阶</t>
+  </si>
+  <si>
+    <t>5_0_160</t>
+  </si>
+  <si>
+    <t>包子3阶</t>
+  </si>
+  <si>
+    <t>5_0_320</t>
+  </si>
+  <si>
+    <t>1元话费</t>
+  </si>
+  <si>
+    <t>得分加成</t>
+  </si>
+  <si>
+    <t>下局获胜时总分加成{0}%</t>
+  </si>
+  <si>
+    <t>超级加倍</t>
+  </si>
+  <si>
+    <t>倍数x{0}，加倍环节可使用</t>
+  </si>
+  <si>
+    <t>连胜符</t>
+  </si>
+  <si>
+    <t>对局失败时连胜数不清零</t>
+  </si>
+  <si>
     <t>记牌器</t>
   </si>
   <si>
-    <t>双刃剑</t>
-  </si>
-  <si>
-    <t>将得分增加一倍或减少一倍</t>
-  </si>
-  <si>
-    <t>超级加倍</t>
-  </si>
-  <si>
-    <t>欢乐豆加成</t>
+    <t>可查看其他玩家已打出的牌</t>
+  </si>
+  <si>
+    <t>记牌器（1天）</t>
+  </si>
+  <si>
+    <t>记牌器（7天）</t>
+  </si>
+  <si>
+    <t>欢乐挑战赛门票</t>
+  </si>
+  <si>
+    <t>欢乐城市公园</t>
+  </si>
+  <si>
+    <t>默认头像</t>
+  </si>
+  <si>
+    <t>竞技到底</t>
+  </si>
+  <si>
+    <t>4_0_2,3_3001_4</t>
+  </si>
+  <si>
+    <t>内含{0}个爱心和{1}个得分加成</t>
   </si>
 </sst>
 </file>
@@ -68,12 +221,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,15 +235,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -104,16 +259,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,13 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -142,22 +326,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,9 +358,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,53 +378,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -242,13 +388,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,84 +490,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -350,79 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,22 +582,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,6 +608,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,177 +679,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,20 +1181,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="4" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="36.75" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="36.75" customWidth="1"/>
+    <col min="7" max="7" width="28.875" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="18.875" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:10">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1064,137 +1215,483 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:10">
       <c r="A3">
+        <v>1001</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>19</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:10">
       <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>1003</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>2001</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>3001</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>3002</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>3003</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>3004</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>3005</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>3006</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>7</v>
       </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>4001</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>5001</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>30</v>
-      </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="E6">
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>6001</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>7001</v>
+      </c>
+      <c r="B16">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/510k/表/D道具.xlsx
+++ b/510k/表/D道具.xlsx
@@ -180,11 +180,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +193,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -202,7 +210,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,53 +276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,61 +290,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,187 +346,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,45 +537,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -639,8 +593,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,148 +642,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1149,7 +1142,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1231,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>2</v>

--- a/510k/表/D道具.xlsx
+++ b/510k/表/D道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,10 +179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -200,9 +200,130 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,127 +336,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -346,187 +346,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,6 +537,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -560,54 +584,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,6 +613,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -645,145 +645,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/510k/表/D道具.xlsx
+++ b/510k/表/D道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="25485" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,7 @@
 3：体验卡
 4：道具
 5：门票
-6：场景
-7：头像框</t>
+6：礼包</t>
         </r>
       </text>
     </comment>
@@ -64,7 +63,20 @@
             <charset val="134"/>
           </rPr>
           <t>1：数值
-2：道具</t>
+2：资源</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：有效期/天
+2：有效期/局</t>
         </r>
       </text>
     </comment>
@@ -73,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>名称</t>
   </si>
@@ -90,7 +102,7 @@
     <t>使用效果</t>
   </si>
   <si>
-    <t>有效期/天</t>
+    <t>有效期</t>
   </si>
   <si>
     <t>叠加上限</t>
@@ -102,6 +114,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>功能链接</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -132,12 +147,12 @@
     <t>ms</t>
   </si>
   <si>
+    <t>gnlj</t>
+  </si>
+  <si>
     <t>包子1阶</t>
   </si>
   <si>
-    <t>1_0_80</t>
-  </si>
-  <si>
     <t>80经验</t>
   </si>
   <si>
@@ -150,15 +165,30 @@
     <t>狗哥（10天）</t>
   </si>
   <si>
+    <t>1_10</t>
+  </si>
+  <si>
+    <t>发哥（10局）</t>
+  </si>
+  <si>
+    <t>2_10</t>
+  </si>
+  <si>
     <t>超级加倍</t>
   </si>
   <si>
     <t>记牌器/天</t>
   </si>
   <si>
+    <t>1_1</t>
+  </si>
+  <si>
     <t>记牌器/次</t>
   </si>
   <si>
+    <t>2_15</t>
+  </si>
+  <si>
     <t>得分加成</t>
   </si>
   <si>
@@ -168,10 +198,10 @@
     <t>黄金赛门票</t>
   </si>
   <si>
-    <t>南山公园</t>
-  </si>
-  <si>
-    <t>默认头像</t>
+    <t>花生3000</t>
+  </si>
+  <si>
+    <t>1_0_300</t>
   </si>
 </sst>
 </file>
@@ -179,10 +209,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -200,52 +230,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,8 +298,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,61 +314,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -336,6 +321,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -352,181 +382,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,15 +567,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -583,7 +604,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,30 +667,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -645,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,133 +687,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1139,20 +1169,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="8" width="15.875" customWidth="1"/>
-    <col min="10" max="10" width="18.875" customWidth="1"/>
+    <col min="10" max="10" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:11">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1180,37 +1211,43 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1218,7 +1255,7 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1226,34 +1263,24 @@
       <c r="D3">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2001</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1261,116 +1288,128 @@
         <v>3001</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="G5">
-        <v>10</v>
+      <c r="G5" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
+        <v>3002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
         <v>4001</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>4002</v>
-      </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="E7">
         <v>1</v>
       </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:7">
       <c r="A8">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>15</v>
+      <c r="G9" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6">
       <c r="A10">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>4</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>5001</v>
+        <v>4005</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
+        <v>5001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
         <v>6001</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12">
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>7001</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/510k/表/D道具.xlsx
+++ b/510k/表/D道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25485" windowHeight="11940"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>名称</t>
   </si>
@@ -150,30 +150,9 @@
     <t>gnlj</t>
   </si>
   <si>
-    <t>包子1阶</t>
-  </si>
-  <si>
-    <t>80经验</t>
-  </si>
-  <si>
-    <t>菜包肉包豆沙包，每样来一份！（可用于提升角色等级）</t>
-  </si>
-  <si>
     <t>10元话费</t>
   </si>
   <si>
-    <t>狗哥（10天）</t>
-  </si>
-  <si>
-    <t>1_10</t>
-  </si>
-  <si>
-    <t>发哥（10局）</t>
-  </si>
-  <si>
-    <t>2_10</t>
-  </si>
-  <si>
     <t>超级加倍</t>
   </si>
   <si>
@@ -190,9 +169,6 @@
   </si>
   <si>
     <t>得分加成</t>
-  </si>
-  <si>
-    <t>连胜符</t>
   </si>
   <si>
     <t>黄金赛门票</t>
@@ -209,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -223,6 +199,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -230,6 +259,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -238,14 +282,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,23 +298,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,6 +322,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,75 +342,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -376,156 +352,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -545,18 +533,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,6 +543,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -602,24 +596,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,16 +609,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,13 +629,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,10 +651,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,133 +663,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1250,73 +1226,74 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:3">
       <c r="A3">
-        <v>1001</v>
+        <v>2001</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>4001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4002</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>2001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>3001</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>4003</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>3002</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
+      <c r="H6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>4001</v>
+        <v>4004</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1325,91 +1302,35 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:3">
       <c r="A8">
-        <v>4002</v>
+        <v>5001</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>6001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
         <v>30</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>4003</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>4004</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>4005</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>5001</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>6001</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/510k/表/D道具.xlsx
+++ b/510k/表/D道具.xlsx
@@ -186,8 +186,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -199,29 +199,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -238,22 +260,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,54 +312,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,14 +322,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,6 +334,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -352,187 +352,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,6 +543,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -559,22 +574,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,10 +596,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -607,9 +605,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,16 +630,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,10 +651,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,133 +663,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/510k/表/D道具.xlsx
+++ b/510k/表/D道具.xlsx
@@ -180,9 +180,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -193,30 +193,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -224,7 +238,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,8 +282,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,78 +297,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,13 +346,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,19 +442,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,19 +478,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,121 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,41 +537,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -600,6 +565,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -610,15 +608,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,6 +626,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -645,10 +645,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,133 +657,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
